--- a/HSI.xlsx
+++ b/HSI.xlsx
@@ -1,42 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenf\Desktop\Dissertation\AlgoTrading\grabbers\Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenf\Desktop\GITS\OptionArb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E733C650-9DE3-4302-ADB5-DD48B3153B3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AD5B08-CE6A-4E27-9CB1-E950D2394FD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="HSI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Close</t>
   </si>
-  <si>
-    <t>null</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -628,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,16 +982,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,1006 +1004,1846 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>43102</v>
+      </c>
+      <c r="B2">
+        <v>30515.310549999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43168</v>
+        <v>43103</v>
       </c>
       <c r="B3">
-        <v>30996.210940000001</v>
+        <v>30560.949219999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43171</v>
+        <v>43104</v>
       </c>
       <c r="B4">
-        <v>31594.33008</v>
+        <v>30736.480469999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43172</v>
+        <v>43105</v>
       </c>
       <c r="B5">
-        <v>31601.449219999999</v>
+        <v>30814.640630000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43173</v>
+        <v>43108</v>
       </c>
       <c r="B6">
-        <v>31435.009770000001</v>
+        <v>30899.529299999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43174</v>
+        <v>43109</v>
       </c>
       <c r="B7">
-        <v>31541.099610000001</v>
+        <v>31011.410159999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43175</v>
+        <v>43110</v>
       </c>
       <c r="B8">
-        <v>31501.970700000002</v>
+        <v>31073.720700000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43178</v>
+        <v>43111</v>
       </c>
       <c r="B9">
-        <v>31513.759770000001</v>
+        <v>31120.390630000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43179</v>
+        <v>43112</v>
       </c>
       <c r="B10">
-        <v>31549.929690000001</v>
+        <v>31412.539059999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43180</v>
+        <v>43115</v>
       </c>
       <c r="B11">
-        <v>31414.519530000001</v>
+        <v>31338.869139999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43181</v>
+        <v>43116</v>
       </c>
       <c r="B12">
-        <v>31071.050780000001</v>
+        <v>31904.75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43182</v>
+        <v>43117</v>
       </c>
       <c r="B13">
-        <v>30309.289059999999</v>
+        <v>31983.410159999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43185</v>
+        <v>43118</v>
       </c>
       <c r="B14">
-        <v>30548.769530000001</v>
+        <v>32121.939450000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43186</v>
+        <v>43119</v>
       </c>
       <c r="B15">
-        <v>30790.83008</v>
+        <v>32254.890630000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43187</v>
+        <v>43122</v>
       </c>
       <c r="B16">
-        <v>30022.529299999998</v>
+        <v>32393.410159999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43188</v>
+        <v>43123</v>
       </c>
       <c r="B17">
-        <v>30093.380860000001</v>
+        <v>32930.699220000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43193</v>
+        <v>43124</v>
       </c>
       <c r="B18">
-        <v>30180.099610000001</v>
+        <v>32958.691409999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43194</v>
+        <v>43125</v>
       </c>
       <c r="B19">
-        <v>29518.689450000002</v>
+        <v>32654.449219999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43196</v>
+        <v>43126</v>
       </c>
       <c r="B20">
-        <v>29844.939450000002</v>
+        <v>33154.121090000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43199</v>
+        <v>43129</v>
       </c>
       <c r="B21">
-        <v>30229.58008</v>
+        <v>32966.890630000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43200</v>
+        <v>43130</v>
       </c>
       <c r="B22">
-        <v>30728.740229999999</v>
+        <v>32607.289059999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43201</v>
+        <v>43131</v>
       </c>
       <c r="B23">
-        <v>30897.710940000001</v>
+        <v>32887.269529999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43202</v>
+        <v>43132</v>
       </c>
       <c r="B24">
-        <v>30831.279299999998</v>
+        <v>32642.089840000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43203</v>
+        <v>43133</v>
       </c>
       <c r="B25">
-        <v>30808.380860000001</v>
+        <v>32601.779299999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43206</v>
+        <v>43136</v>
       </c>
       <c r="B26">
-        <v>30315.589840000001</v>
+        <v>32245.220700000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43207</v>
+        <v>43137</v>
       </c>
       <c r="B27">
-        <v>30062.75</v>
+        <v>30595.41992</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43208</v>
+        <v>43138</v>
       </c>
       <c r="B28">
-        <v>30284.25</v>
+        <v>30323.199219999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43209</v>
+        <v>43139</v>
       </c>
       <c r="B29">
-        <v>30708.439450000002</v>
+        <v>30451.269530000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43210</v>
+        <v>43140</v>
       </c>
       <c r="B30">
-        <v>30418.33008</v>
+        <v>29507.41992</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43213</v>
+        <v>43143</v>
       </c>
       <c r="B31">
-        <v>30254.400389999999</v>
+        <v>29459.630860000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43214</v>
+        <v>43144</v>
       </c>
       <c r="B32">
-        <v>30636.240229999999</v>
+        <v>29839.529299999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43215</v>
+        <v>43145</v>
       </c>
       <c r="B33">
-        <v>30328.150389999999</v>
+        <v>30515.599610000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43216</v>
+        <v>43146</v>
       </c>
       <c r="B34">
-        <v>30007.679690000001</v>
+        <v>31115.429690000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43217</v>
+        <v>43151</v>
       </c>
       <c r="B35">
-        <v>30280.66992</v>
+        <v>30873.630860000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43220</v>
+        <v>43152</v>
       </c>
       <c r="B36">
-        <v>30808.449219999999</v>
+        <v>31431.890630000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43222</v>
+        <v>43153</v>
       </c>
       <c r="B37">
-        <v>30723.880860000001</v>
+        <v>30965.679690000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43223</v>
+        <v>43154</v>
       </c>
       <c r="B38">
-        <v>30313.369139999999</v>
+        <v>31267.16992</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>43224</v>
+        <v>43157</v>
       </c>
       <c r="B39">
-        <v>29926.5</v>
+        <v>31498.599610000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>43227</v>
+        <v>43158</v>
       </c>
       <c r="B40">
-        <v>29994.259770000001</v>
+        <v>31268.660159999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>43228</v>
+        <v>43159</v>
       </c>
       <c r="B41">
-        <v>30402.810549999998</v>
+        <v>30844.720700000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>43229</v>
+        <v>43160</v>
       </c>
       <c r="B42">
-        <v>30536.140630000002</v>
+        <v>31044.25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43230</v>
+        <v>43161</v>
       </c>
       <c r="B43">
-        <v>30809.220700000002</v>
+        <v>30583.449219999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43231</v>
+        <v>43164</v>
       </c>
       <c r="B44">
-        <v>31122.060549999998</v>
+        <v>29886.390630000002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43234</v>
+        <v>43165</v>
       </c>
       <c r="B45">
-        <v>31541.08008</v>
+        <v>30510.730469999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>43235</v>
+        <v>43166</v>
       </c>
       <c r="B46">
-        <v>31152.029299999998</v>
+        <v>30196.91992</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>43236</v>
+        <v>43167</v>
       </c>
       <c r="B47">
-        <v>31110.199219999999</v>
+        <v>30654.519530000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43237</v>
+        <v>43168</v>
       </c>
       <c r="B48">
-        <v>30942.150389999999</v>
+        <v>30996.210940000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43238</v>
+        <v>43171</v>
       </c>
       <c r="B49">
-        <v>31047.910159999999</v>
+        <v>31594.33008</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43241</v>
+        <v>43172</v>
       </c>
       <c r="B50">
-        <v>31234.349610000001</v>
+        <v>31601.449219999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43243</v>
+        <v>43173</v>
       </c>
       <c r="B51">
-        <v>30665.640630000002</v>
+        <v>31435.009770000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43244</v>
+        <v>43174</v>
       </c>
       <c r="B52">
-        <v>30760.410159999999</v>
+        <v>31541.099610000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>43245</v>
+        <v>43175</v>
       </c>
       <c r="B53">
-        <v>30588.039059999999</v>
+        <v>31501.970700000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>43248</v>
+        <v>43178</v>
       </c>
       <c r="B54">
-        <v>30792.259770000001</v>
+        <v>31513.759770000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>43249</v>
+        <v>43179</v>
       </c>
       <c r="B55">
-        <v>30484.58008</v>
+        <v>31549.929690000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43250</v>
+        <v>43180</v>
       </c>
       <c r="B56">
-        <v>30056.789059999999</v>
+        <v>31414.519530000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43251</v>
+        <v>43181</v>
       </c>
       <c r="B57">
-        <v>30468.560549999998</v>
+        <v>31071.050780000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43252</v>
+        <v>43182</v>
       </c>
       <c r="B58">
-        <v>30492.910159999999</v>
+        <v>30309.289059999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43255</v>
+        <v>43185</v>
       </c>
       <c r="B59">
-        <v>30997.980469999999</v>
+        <v>30548.769530000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43256</v>
+        <v>43186</v>
       </c>
       <c r="B60">
-        <v>31093.449219999999</v>
+        <v>30790.83008</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43257</v>
+        <v>43187</v>
       </c>
       <c r="B61">
-        <v>31259.099610000001</v>
+        <v>30022.529299999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43258</v>
+        <v>43188</v>
       </c>
       <c r="B62">
-        <v>31512.630860000001</v>
+        <v>30093.380860000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43259</v>
+        <v>43193</v>
       </c>
       <c r="B63">
-        <v>30958.210940000001</v>
+        <v>30180.099610000001</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43262</v>
+        <v>43194</v>
       </c>
       <c r="B64">
-        <v>31063.699219999999</v>
+        <v>29518.689450000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43263</v>
+        <v>43196</v>
       </c>
       <c r="B65">
-        <v>31103.060549999998</v>
+        <v>29844.939450000002</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43264</v>
+        <v>43199</v>
       </c>
       <c r="B66">
-        <v>30725.150389999999</v>
+        <v>30229.58008</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43265</v>
+        <v>43200</v>
       </c>
       <c r="B67">
-        <v>30440.16992</v>
+        <v>30728.740229999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43266</v>
+        <v>43201</v>
       </c>
       <c r="B68">
-        <v>30309.490229999999</v>
+        <v>30897.710940000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43270</v>
+        <v>43202</v>
       </c>
       <c r="B69">
-        <v>29468.150389999999</v>
+        <v>30831.279299999998</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43271</v>
+        <v>43203</v>
       </c>
       <c r="B70">
-        <v>29696.16992</v>
+        <v>30808.380860000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43272</v>
+        <v>43206</v>
       </c>
       <c r="B71">
-        <v>29296.050780000001</v>
+        <v>30315.589840000001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43273</v>
+        <v>43207</v>
       </c>
       <c r="B72">
-        <v>29338.699219999999</v>
+        <v>30062.75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43276</v>
+        <v>43208</v>
       </c>
       <c r="B73">
-        <v>28961.390630000002</v>
+        <v>30284.25</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43277</v>
+        <v>43209</v>
       </c>
       <c r="B74">
-        <v>28881.400389999999</v>
+        <v>30708.439450000002</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43278</v>
+        <v>43210</v>
       </c>
       <c r="B75">
-        <v>28356.259770000001</v>
+        <v>30418.33008</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43279</v>
+        <v>43213</v>
       </c>
       <c r="B76">
-        <v>28497.320309999999</v>
+        <v>30254.400389999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43280</v>
+        <v>43214</v>
       </c>
       <c r="B77">
-        <v>28955.109380000002</v>
+        <v>30636.240229999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43284</v>
+        <v>43215</v>
       </c>
       <c r="B78">
-        <v>28545.570309999999</v>
+        <v>30328.150389999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43285</v>
+        <v>43216</v>
       </c>
       <c r="B79">
-        <v>28241.66992</v>
+        <v>30007.679690000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43286</v>
+        <v>43217</v>
       </c>
       <c r="B80">
-        <v>28182.089840000001</v>
+        <v>30280.66992</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43287</v>
+        <v>43220</v>
       </c>
       <c r="B81">
-        <v>28315.619139999999</v>
+        <v>30808.449219999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43290</v>
+        <v>43222</v>
       </c>
       <c r="B82">
-        <v>28688.5</v>
+        <v>30723.880860000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43291</v>
+        <v>43223</v>
       </c>
       <c r="B83">
-        <v>28682.25</v>
+        <v>30313.369139999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>43292</v>
+        <v>43224</v>
       </c>
       <c r="B84">
-        <v>28311.689450000002</v>
+        <v>29926.5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>43293</v>
+        <v>43227</v>
       </c>
       <c r="B85">
-        <v>28480.83008</v>
+        <v>29994.259770000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>43294</v>
+        <v>43228</v>
       </c>
       <c r="B86">
-        <v>28525.439450000002</v>
+        <v>30402.810549999998</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>43297</v>
+        <v>43229</v>
       </c>
       <c r="B87">
-        <v>28539.660159999999</v>
+        <v>30536.140630000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>43298</v>
+        <v>43230</v>
       </c>
       <c r="B88">
-        <v>28181.679690000001</v>
+        <v>30809.220700000002</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>43299</v>
+        <v>43231</v>
       </c>
       <c r="B89">
-        <v>28117.41992</v>
+        <v>31122.060549999998</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>43300</v>
+        <v>43234</v>
       </c>
       <c r="B90">
-        <v>28010.859380000002</v>
+        <v>31541.08008</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>43301</v>
+        <v>43235</v>
       </c>
       <c r="B91">
-        <v>28224.480469999999</v>
+        <v>31152.029299999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>43304</v>
+        <v>43236</v>
       </c>
       <c r="B92">
-        <v>28256.119139999999</v>
+        <v>31110.199219999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>43305</v>
+        <v>43237</v>
       </c>
       <c r="B93">
-        <v>28662.570309999999</v>
+        <v>30942.150389999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>43306</v>
+        <v>43238</v>
       </c>
       <c r="B94">
-        <v>28920.900389999999</v>
+        <v>31047.910159999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>43307</v>
+        <v>43241</v>
       </c>
       <c r="B95">
-        <v>28781.140630000002</v>
+        <v>31234.349610000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>43308</v>
+        <v>43243</v>
       </c>
       <c r="B96">
-        <v>28804.279299999998</v>
+        <v>30665.640630000002</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>43311</v>
+        <v>43244</v>
       </c>
       <c r="B97">
-        <v>28733.130860000001</v>
+        <v>30760.410159999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>43312</v>
+        <v>43245</v>
       </c>
       <c r="B98">
-        <v>28583.009770000001</v>
+        <v>30588.039059999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>43313</v>
+        <v>43248</v>
       </c>
       <c r="B99">
-        <v>28340.740229999999</v>
+        <v>30792.259770000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>43314</v>
+        <v>43249</v>
       </c>
       <c r="B100">
-        <v>27714.560549999998</v>
+        <v>30484.58008</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>43315</v>
+        <v>43250</v>
       </c>
       <c r="B101">
-        <v>27676.320309999999</v>
+        <v>30056.789059999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>43318</v>
+        <v>43251</v>
       </c>
       <c r="B102">
-        <v>27819.560549999998</v>
+        <v>30468.560549999998</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>43319</v>
+        <v>43252</v>
       </c>
       <c r="B103">
-        <v>28248.880860000001</v>
+        <v>30492.910159999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>43320</v>
+        <v>43255</v>
       </c>
       <c r="B104">
-        <v>28359.140630000002</v>
+        <v>30997.980469999999</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>43321</v>
+        <v>43256</v>
       </c>
       <c r="B105">
-        <v>28607.300780000001</v>
+        <v>31093.449219999999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>43322</v>
+        <v>43257</v>
       </c>
       <c r="B106">
-        <v>28366.619139999999</v>
+        <v>31259.099610000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>43325</v>
+        <v>43258</v>
       </c>
       <c r="B107">
-        <v>27936.570309999999</v>
+        <v>31512.630860000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>43326</v>
+        <v>43259</v>
       </c>
       <c r="B108">
-        <v>27752.929690000001</v>
+        <v>30958.210940000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>43327</v>
+        <v>43262</v>
       </c>
       <c r="B109">
-        <v>27323.589840000001</v>
+        <v>31063.699219999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>43328</v>
+        <v>43263</v>
       </c>
       <c r="B110">
-        <v>27100.060549999998</v>
+        <v>31103.060549999998</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>43329</v>
+        <v>43264</v>
       </c>
       <c r="B111">
-        <v>27213.410159999999</v>
+        <v>30725.150389999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>43332</v>
+        <v>43265</v>
       </c>
       <c r="B112">
-        <v>27598.019530000001</v>
+        <v>30440.16992</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>43333</v>
+        <v>43266</v>
       </c>
       <c r="B113">
-        <v>27752.789059999999</v>
+        <v>30309.490229999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>43334</v>
+        <v>43270</v>
       </c>
       <c r="B114">
-        <v>27927.58008</v>
+        <v>29468.150389999999</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>43335</v>
+        <v>43271</v>
       </c>
       <c r="B115">
-        <v>27790.460940000001</v>
+        <v>29696.16992</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>43336</v>
+        <v>43272</v>
       </c>
       <c r="B116">
-        <v>27671.869139999999</v>
+        <v>29296.050780000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>43339</v>
+        <v>43273</v>
       </c>
       <c r="B117">
-        <v>28271.269530000001</v>
+        <v>29338.699219999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>43340</v>
+        <v>43276</v>
       </c>
       <c r="B118">
-        <v>28351.619139999999</v>
+        <v>28961.390630000002</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>43341</v>
+        <v>43277</v>
       </c>
       <c r="B119">
-        <v>28416.439450000002</v>
+        <v>28881.400389999999</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>43342</v>
+        <v>43278</v>
       </c>
       <c r="B120">
-        <v>28164.050780000001</v>
+        <v>28356.259770000001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>43343</v>
+        <v>43279</v>
       </c>
       <c r="B121">
-        <v>27888.550780000001</v>
+        <v>28497.320309999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>43346</v>
+        <v>43280</v>
       </c>
       <c r="B122">
-        <v>27712.539059999999</v>
+        <v>28955.109380000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>43347</v>
+        <v>43284</v>
       </c>
       <c r="B123">
-        <v>27973.339840000001</v>
+        <v>28545.570309999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>43348</v>
+        <v>43285</v>
       </c>
       <c r="B124">
-        <v>27243.849610000001</v>
+        <v>28241.66992</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>43349</v>
+        <v>43286</v>
       </c>
       <c r="B125">
-        <v>26974.820309999999</v>
+        <v>28182.089840000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B126">
+        <v>28315.619139999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>43290</v>
+      </c>
+      <c r="B127">
+        <v>28688.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>43291</v>
+      </c>
+      <c r="B128">
+        <v>28682.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>43292</v>
+      </c>
+      <c r="B129">
+        <v>28311.689450000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>43293</v>
+      </c>
+      <c r="B130">
+        <v>28480.83008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>43294</v>
+      </c>
+      <c r="B131">
+        <v>28525.439450000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>43297</v>
+      </c>
+      <c r="B132">
+        <v>28539.660159999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>43298</v>
+      </c>
+      <c r="B133">
+        <v>28181.679690000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>43299</v>
+      </c>
+      <c r="B134">
+        <v>28117.41992</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B135">
+        <v>28010.859380000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>43301</v>
+      </c>
+      <c r="B136">
+        <v>28224.480469999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B137">
+        <v>28256.119139999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>43305</v>
+      </c>
+      <c r="B138">
+        <v>28662.570309999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B139">
+        <v>28920.900389999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>43307</v>
+      </c>
+      <c r="B140">
+        <v>28781.140630000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>43308</v>
+      </c>
+      <c r="B141">
+        <v>28804.279299999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>43311</v>
+      </c>
+      <c r="B142">
+        <v>28733.130860000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B143">
+        <v>28583.009770000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B144">
+        <v>28340.740229999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>43314</v>
+      </c>
+      <c r="B145">
+        <v>27714.560549999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>43315</v>
+      </c>
+      <c r="B146">
+        <v>27676.320309999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>43318</v>
+      </c>
+      <c r="B147">
+        <v>27819.560549999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>43319</v>
+      </c>
+      <c r="B148">
+        <v>28248.880860000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>43320</v>
+      </c>
+      <c r="B149">
+        <v>28359.140630000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>43321</v>
+      </c>
+      <c r="B150">
+        <v>28607.300780000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>43322</v>
+      </c>
+      <c r="B151">
+        <v>28366.619139999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B152">
+        <v>27936.570309999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>43326</v>
+      </c>
+      <c r="B153">
+        <v>27752.929690000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>43327</v>
+      </c>
+      <c r="B154">
+        <v>27323.589840000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>43328</v>
+      </c>
+      <c r="B155">
+        <v>27100.060549999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>43329</v>
+      </c>
+      <c r="B156">
+        <v>27213.410159999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>43332</v>
+      </c>
+      <c r="B157">
+        <v>27598.019530000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>43333</v>
+      </c>
+      <c r="B158">
+        <v>27752.789059999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>43334</v>
+      </c>
+      <c r="B159">
+        <v>27927.58008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>43335</v>
+      </c>
+      <c r="B160">
+        <v>27790.460940000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>43336</v>
+      </c>
+      <c r="B161">
+        <v>27671.869139999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B162">
+        <v>28271.269530000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>43340</v>
+      </c>
+      <c r="B163">
+        <v>28351.619139999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>43341</v>
+      </c>
+      <c r="B164">
+        <v>28416.439450000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>43342</v>
+      </c>
+      <c r="B165">
+        <v>28164.050780000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B166">
+        <v>27888.550780000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>43346</v>
+      </c>
+      <c r="B167">
+        <v>27712.539059999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B168">
+        <v>27973.339840000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B169">
+        <v>27243.849610000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>43349</v>
+      </c>
+      <c r="B170">
+        <v>26974.820309999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
         <v>43350</v>
       </c>
-      <c r="B126">
+      <c r="B171">
         <v>26973.470700000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>43353</v>
+      </c>
+      <c r="B172">
+        <v>26613.41992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>43354</v>
+      </c>
+      <c r="B173">
+        <v>26422.550780000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>43355</v>
+      </c>
+      <c r="B174">
+        <v>26345.039059999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>43356</v>
+      </c>
+      <c r="B175">
+        <v>27014.490229999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>43357</v>
+      </c>
+      <c r="B176">
+        <v>27286.410159999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>43360</v>
+      </c>
+      <c r="B177">
+        <v>26932.849610000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B178">
+        <v>27084.660159999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>43362</v>
+      </c>
+      <c r="B179">
+        <v>27407.369139999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>43363</v>
+      </c>
+      <c r="B180">
+        <v>27477.66992</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>43364</v>
+      </c>
+      <c r="B181">
+        <v>27953.58008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>43367</v>
+      </c>
+      <c r="B182">
+        <v>27499.390630000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>43369</v>
+      </c>
+      <c r="B183">
+        <v>27816.869139999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B184">
+        <v>27715.66992</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B185">
+        <v>27788.519530000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>43375</v>
+      </c>
+      <c r="B186">
+        <v>27126.380860000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B187">
+        <v>27091.259770000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B188">
+        <v>26623.869139999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B189">
+        <v>26572.570309999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B190">
+        <v>26202.570309999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>43382</v>
+      </c>
+      <c r="B191">
+        <v>26172.910159999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B192">
+        <v>26193.070309999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>43384</v>
+      </c>
+      <c r="B193">
+        <v>25266.369139999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B194">
+        <v>25801.490229999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>43388</v>
+      </c>
+      <c r="B195">
+        <v>25445.060549999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>43389</v>
+      </c>
+      <c r="B196">
+        <v>25462.259770000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B197">
+        <v>25454.550780000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>43392</v>
+      </c>
+      <c r="B198">
+        <v>25561.400389999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>43395</v>
+      </c>
+      <c r="B199">
+        <v>26153.150389999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>43396</v>
+      </c>
+      <c r="B200">
+        <v>25346.550780000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>43397</v>
+      </c>
+      <c r="B201">
+        <v>25249.779299999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>43398</v>
+      </c>
+      <c r="B202">
+        <v>24994.460940000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>43399</v>
+      </c>
+      <c r="B203">
+        <v>24717.630860000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>43402</v>
+      </c>
+      <c r="B204">
+        <v>24812.039059999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B205">
+        <v>24585.529299999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B206">
+        <v>24979.689450000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B207">
+        <v>25416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B208">
+        <v>26486.349610000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B209">
+        <v>25934.390630000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>43410</v>
+      </c>
+      <c r="B210">
+        <v>26120.960940000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>43411</v>
+      </c>
+      <c r="B211">
+        <v>26147.689450000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>43412</v>
+      </c>
+      <c r="B212">
+        <v>26227.720700000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>43413</v>
+      </c>
+      <c r="B213">
+        <v>25601.91992</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>43416</v>
+      </c>
+      <c r="B214">
+        <v>25633.179690000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>43417</v>
+      </c>
+      <c r="B215">
+        <v>25792.869139999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>43418</v>
+      </c>
+      <c r="B216">
+        <v>25654.429690000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>43419</v>
+      </c>
+      <c r="B217">
+        <v>26103.339840000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>43420</v>
+      </c>
+      <c r="B218">
+        <v>26183.529299999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>43423</v>
+      </c>
+      <c r="B219">
+        <v>26372</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B220">
+        <v>25840.339840000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>43425</v>
+      </c>
+      <c r="B221">
+        <v>25971.470700000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>43426</v>
+      </c>
+      <c r="B222">
+        <v>26019.410159999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>43427</v>
+      </c>
+      <c r="B223">
+        <v>25927.679690000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>43430</v>
+      </c>
+      <c r="B224">
+        <v>26376.179690000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>43431</v>
+      </c>
+      <c r="B225">
+        <v>26331.960940000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>43432</v>
+      </c>
+      <c r="B226">
+        <v>26682.560549999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>43433</v>
+      </c>
+      <c r="B227">
+        <v>26451.029299999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B228">
+        <v>26506.75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>43437</v>
+      </c>
+      <c r="B229">
+        <v>27182.039059999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B230">
+        <v>27260.439450000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>43439</v>
+      </c>
+      <c r="B231">
+        <v>26819.679690000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>